--- a/medicine/Psychotrope/Musée_du_café/Musée_du_café.xlsx
+++ b/medicine/Psychotrope/Musée_du_café/Musée_du_café.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_caf%C3%A9</t>
+          <t>Musée_du_café</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée du Café de Vieux-Habitants (Guadeloupe, France) explique la culture et l'histoire du café.
 Le musée du Café ne doit pas être confondu avec la maison du café ou Habitation La Grivelière, situé également à Vieux-Habitants.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_caf%C3%A9</t>
+          <t>Musée_du_café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée du café permet de découvrir le domaine où sont plantés des caféiers. Il explique ensuite le bonifierie qui est le lieu de transformation du café avec les étapes de séchage et torréfaction.
 </t>
